--- a/profile1.xlsx
+++ b/profile1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\_магистратура\funcmodels\semantics_and_whatnot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF63667B-A398-4828-985D-B6850D87A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976A1169-EFC0-43D0-B37A-D85530703E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="344">
   <si>
     <r>
       <t xml:space="preserve">Замечательная девушка, неглупая, начитанная, неплохо образована.  И самое главное </t>
@@ -9030,6 +9030,12 @@
   </si>
   <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Количество</t>
   </si>
 </sst>
 </file>
@@ -9416,66 +9422,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B346"/>
+  <dimension ref="A1:F346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B2">
         <v>-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>-2</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(B:B,"=-2")</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIF(B:B,"=-1")</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B4">
         <v>-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIF(B:B,"=-0")</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIF(B:B,"=1")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6">
         <v>-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIF(B:B,"=2")</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
@@ -9483,7 +9532,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>231</v>
       </c>
@@ -9491,7 +9540,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>130</v>
       </c>
@@ -9499,7 +9548,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>105</v>
       </c>
@@ -9507,7 +9556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>268</v>
       </c>
@@ -9515,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>306</v>
       </c>
@@ -9523,7 +9572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>276</v>
       </c>
@@ -9531,7 +9580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>296</v>
       </c>
@@ -9539,7 +9588,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>149</v>
       </c>
@@ -9547,7 +9596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
